--- a/Code/Results/Cases/Case_9_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.12223843553835</v>
+        <v>1.104629603321143</v>
       </c>
       <c r="C2">
-        <v>0.1596880607658306</v>
+        <v>0.1429640418928599</v>
       </c>
       <c r="D2">
-        <v>0.1148164606168223</v>
+        <v>0.1178982851753432</v>
       </c>
       <c r="E2">
-        <v>0.06859384162418181</v>
+        <v>0.06638827004752734</v>
       </c>
       <c r="F2">
-        <v>0.7180721554038243</v>
+        <v>0.6668813284230239</v>
       </c>
       <c r="G2">
-        <v>0.4530496669994619</v>
+        <v>0.4000094433728734</v>
       </c>
       <c r="H2">
-        <v>0.01007625461469965</v>
+        <v>0.008160037989193597</v>
       </c>
       <c r="I2">
-        <v>0.01423318730797485</v>
+        <v>0.01062450717495533</v>
       </c>
       <c r="J2">
-        <v>0.4007124188461688</v>
+        <v>0.3895537491202958</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.07350588048011275</v>
+        <v>0.1802001444361814</v>
       </c>
       <c r="M2">
-        <v>0.9374156005124803</v>
+        <v>0.137262867272943</v>
       </c>
       <c r="N2">
-        <v>0.1921340094598207</v>
+        <v>0.06859727185380748</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9629801101966109</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2085973077825969</v>
       </c>
       <c r="Q2">
-        <v>1.745120165876102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.597305185757193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9782422013059318</v>
+        <v>0.9645040484201957</v>
       </c>
       <c r="C3">
-        <v>0.155372115412554</v>
+        <v>0.135742584157164</v>
       </c>
       <c r="D3">
-        <v>0.1031608077926407</v>
+        <v>0.105917093421759</v>
       </c>
       <c r="E3">
-        <v>0.06435615306971521</v>
+        <v>0.06254229687824875</v>
       </c>
       <c r="F3">
-        <v>0.7060175854620567</v>
+        <v>0.6587270437687991</v>
       </c>
       <c r="G3">
-        <v>0.4492288774828026</v>
+        <v>0.4008460661168769</v>
       </c>
       <c r="H3">
-        <v>0.0125734915686684</v>
+        <v>0.01026329213044122</v>
       </c>
       <c r="I3">
-        <v>0.01706926478227366</v>
+        <v>0.01278311216033279</v>
       </c>
       <c r="J3">
-        <v>0.4032136181990182</v>
+        <v>0.3903817446434275</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.07093648819974696</v>
+        <v>0.1854496106441772</v>
       </c>
       <c r="M3">
-        <v>0.8199478318302624</v>
+        <v>0.1384517118523654</v>
       </c>
       <c r="N3">
-        <v>0.1699635672653059</v>
+        <v>0.06653606496003128</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8407591266113172</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1844444433481343</v>
       </c>
       <c r="Q3">
-        <v>1.741977852682055</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.603040429959364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8895603883230194</v>
+        <v>0.8780850433742557</v>
       </c>
       <c r="C4">
-        <v>0.1527362137940713</v>
+        <v>0.131388325749441</v>
       </c>
       <c r="D4">
-        <v>0.0960363028555733</v>
+        <v>0.0985999083245872</v>
       </c>
       <c r="E4">
-        <v>0.06173796300121204</v>
+        <v>0.06016113293059178</v>
       </c>
       <c r="F4">
-        <v>0.699064447720481</v>
+        <v>0.6540639641878201</v>
       </c>
       <c r="G4">
-        <v>0.4472408492151914</v>
+        <v>0.4017322940098609</v>
       </c>
       <c r="H4">
-        <v>0.01430944404142775</v>
+        <v>0.01173018036067646</v>
       </c>
       <c r="I4">
-        <v>0.01904515393460393</v>
+        <v>0.01430498809858749</v>
       </c>
       <c r="J4">
-        <v>0.4049986162731685</v>
+        <v>0.390970469195878</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06931364801663698</v>
+        <v>0.1887773281723319</v>
       </c>
       <c r="M4">
-        <v>0.7478125236692676</v>
+        <v>0.1397210540661895</v>
       </c>
       <c r="N4">
-        <v>0.1564199269433217</v>
+        <v>0.06522354386753548</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.765754010394204</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1697218960210591</v>
       </c>
       <c r="Q4">
-        <v>1.74132177240719</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.607548632683532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8529900535589832</v>
+        <v>0.8424200857554069</v>
       </c>
       <c r="C5">
-        <v>0.1517968903233538</v>
+        <v>0.1297981265560253</v>
       </c>
       <c r="D5">
-        <v>0.09317397716295517</v>
+        <v>0.09566034262723377</v>
       </c>
       <c r="E5">
-        <v>0.06063356965227662</v>
+        <v>0.05915407323861643</v>
       </c>
       <c r="F5">
-        <v>0.6958062340134603</v>
+        <v>0.6517466070222326</v>
       </c>
       <c r="G5">
-        <v>0.4460755595424928</v>
+        <v>0.4017802935843449</v>
       </c>
       <c r="H5">
-        <v>0.01507087625494363</v>
+        <v>0.01237476270114196</v>
       </c>
       <c r="I5">
-        <v>0.01999886127584549</v>
+        <v>0.01507563725390959</v>
       </c>
       <c r="J5">
-        <v>0.4055547999289786</v>
+        <v>0.3910056355916112</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.06858932975128162</v>
+        <v>0.1899733901000857</v>
       </c>
       <c r="M5">
-        <v>0.7187820354591423</v>
+        <v>0.1402837230030247</v>
       </c>
       <c r="N5">
-        <v>0.1510973152765729</v>
+        <v>0.06462979635015564</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.735560821067466</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1639278619890661</v>
       </c>
       <c r="Q5">
-        <v>1.739940943683834</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.608306686136444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8464705363174687</v>
+        <v>0.8360626960984803</v>
       </c>
       <c r="C6">
-        <v>0.1518045894519346</v>
+        <v>0.1297396172456544</v>
       </c>
       <c r="D6">
-        <v>0.09274011553069528</v>
+        <v>0.09521305591849938</v>
       </c>
       <c r="E6">
-        <v>0.06040928072525631</v>
+        <v>0.05894784134333619</v>
       </c>
       <c r="F6">
-        <v>0.6946186536846355</v>
+        <v>0.6507549288879702</v>
       </c>
       <c r="G6">
-        <v>0.4453470226261587</v>
+        <v>0.4013011460126421</v>
       </c>
       <c r="H6">
-        <v>0.0152059657191595</v>
+        <v>0.01248933416860648</v>
       </c>
       <c r="I6">
-        <v>0.02027943371441676</v>
+        <v>0.01534050581582846</v>
       </c>
       <c r="J6">
-        <v>0.4053665367603188</v>
+        <v>0.3907383597172185</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.06840545207863435</v>
+        <v>0.1899471262157206</v>
       </c>
       <c r="M6">
-        <v>0.71441724421949</v>
+        <v>0.1402751674465907</v>
       </c>
       <c r="N6">
-        <v>0.150435905564656</v>
+        <v>0.06447314297987283</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7309962598186246</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1631879384107506</v>
       </c>
       <c r="Q6">
-        <v>1.737989490667246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.606835605977338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8878537913619198</v>
+        <v>0.876501783798119</v>
       </c>
       <c r="C7">
-        <v>0.1531726622751464</v>
+        <v>0.1318575354830998</v>
       </c>
       <c r="D7">
-        <v>0.09610974463515021</v>
+        <v>0.09883314231043983</v>
       </c>
       <c r="E7">
-        <v>0.06161215178382484</v>
+        <v>0.06005767119923533</v>
       </c>
       <c r="F7">
-        <v>0.6972394091710541</v>
+        <v>0.6514988808671873</v>
       </c>
       <c r="G7">
-        <v>0.445751913778544</v>
+        <v>0.4024232232122671</v>
       </c>
       <c r="H7">
-        <v>0.01433431438198773</v>
+        <v>0.0117584891990196</v>
       </c>
       <c r="I7">
-        <v>0.01936514458563199</v>
+        <v>0.01467063818539849</v>
       </c>
       <c r="J7">
-        <v>0.4042319917686683</v>
+        <v>0.386867672522186</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.06913244065857604</v>
+        <v>0.1879627444641976</v>
       </c>
       <c r="M7">
-        <v>0.7486708946610037</v>
+        <v>0.1392912986224442</v>
       </c>
       <c r="N7">
-        <v>0.1569539985383699</v>
+        <v>0.06503056953962627</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.766458249987096</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1702732767597084</v>
       </c>
       <c r="Q7">
-        <v>1.736558553370088</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.600746531571687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.071017447065202</v>
+        <v>1.055063294645748</v>
       </c>
       <c r="C8">
-        <v>0.158807950498236</v>
+        <v>0.1409962748614149</v>
       </c>
       <c r="D8">
-        <v>0.1109394865985394</v>
+        <v>0.1144512484522267</v>
       </c>
       <c r="E8">
-        <v>0.06698955462172229</v>
+        <v>0.06498125126723231</v>
       </c>
       <c r="F8">
-        <v>0.7114799425501985</v>
+        <v>0.6589692779969667</v>
       </c>
       <c r="G8">
-        <v>0.4497213789948447</v>
+        <v>0.4052607493485212</v>
       </c>
       <c r="H8">
-        <v>0.01091023409472563</v>
+        <v>0.008880087154795629</v>
       </c>
       <c r="I8">
-        <v>0.0155307885206506</v>
+        <v>0.01177011871994083</v>
       </c>
       <c r="J8">
-        <v>0.4005106854043916</v>
+        <v>0.3780231729945314</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.07240423679669661</v>
+        <v>0.1805964016621751</v>
       </c>
       <c r="M8">
-        <v>0.8985819696657416</v>
+        <v>0.1366281903801632</v>
       </c>
       <c r="N8">
-        <v>0.1852813605569992</v>
+        <v>0.06760074733756127</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9220782946745771</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2011384350714707</v>
       </c>
       <c r="Q8">
-        <v>1.737546614696399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.585425402712858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.430441531750091</v>
+        <v>1.40417186719759</v>
       </c>
       <c r="C9">
-        <v>0.1691824958104391</v>
+        <v>0.1588071084977116</v>
       </c>
       <c r="D9">
-        <v>0.1401022358193131</v>
+        <v>0.1446250373788587</v>
       </c>
       <c r="E9">
-        <v>0.07761100304098179</v>
+        <v>0.07461586972510403</v>
       </c>
       <c r="F9">
-        <v>0.7462772133321067</v>
+        <v>0.6825626966709564</v>
       </c>
       <c r="G9">
-        <v>0.4630992675055481</v>
+        <v>0.4088339786190147</v>
       </c>
       <c r="H9">
-        <v>0.005859439446118331</v>
+        <v>0.004650872506196946</v>
       </c>
       <c r="I9">
-        <v>0.00948497497310008</v>
+        <v>0.007142125334556049</v>
       </c>
       <c r="J9">
-        <v>0.3966114334425441</v>
+        <v>0.3744350780072878</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.07877001389009664</v>
+        <v>0.1687620498064319</v>
       </c>
       <c r="M9">
-        <v>1.190458551717228</v>
+        <v>0.1368016638527294</v>
       </c>
       <c r="N9">
-        <v>0.2403625720946678</v>
+        <v>0.07265068432178801</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.225965359948901</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2614040757540437</v>
       </c>
       <c r="Q9">
-        <v>1.758400315976132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.580062226559448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.689835138230364</v>
+        <v>1.656401966414535</v>
       </c>
       <c r="C10">
-        <v>0.178330074950992</v>
+        <v>0.1735681104277518</v>
       </c>
       <c r="D10">
-        <v>0.1595956517126069</v>
+        <v>0.1657804290729672</v>
       </c>
       <c r="E10">
-        <v>0.0827257731927844</v>
+        <v>0.07921131722007502</v>
       </c>
       <c r="F10">
-        <v>0.7638055128669521</v>
+        <v>0.6879061429653746</v>
       </c>
       <c r="G10">
-        <v>0.4677143257191361</v>
+        <v>0.4196705066877371</v>
       </c>
       <c r="H10">
-        <v>0.003597327357061531</v>
+        <v>0.00283517661257271</v>
       </c>
       <c r="I10">
-        <v>0.006547508435053473</v>
+        <v>0.005060267448290467</v>
       </c>
       <c r="J10">
-        <v>0.3913643441665755</v>
+        <v>0.3519686804607858</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.0808177807513033</v>
+        <v>0.1581694095376118</v>
       </c>
       <c r="M10">
-        <v>1.408970790279596</v>
+        <v>0.1367865464933118</v>
       </c>
       <c r="N10">
-        <v>0.2732406240501746</v>
+        <v>0.07392040484033302</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.452194209196449</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2977882817919522</v>
       </c>
       <c r="Q10">
-        <v>1.75764367390812</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.549160186307247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.778076289576831</v>
+        <v>1.747525995421114</v>
       </c>
       <c r="C11">
-        <v>0.1951176478345573</v>
+        <v>0.1931660948105076</v>
       </c>
       <c r="D11">
-        <v>0.1497766509189375</v>
+        <v>0.1574894933558397</v>
       </c>
       <c r="E11">
-        <v>0.06486717847181644</v>
+        <v>0.06223150741345229</v>
       </c>
       <c r="F11">
-        <v>0.6884849013657117</v>
+        <v>0.611764132890336</v>
       </c>
       <c r="G11">
-        <v>0.4136710350134223</v>
+        <v>0.3964043278025713</v>
       </c>
       <c r="H11">
-        <v>0.02212490462050454</v>
+        <v>0.02142839217912851</v>
       </c>
       <c r="I11">
-        <v>0.006378624351502715</v>
+        <v>0.005227207412381141</v>
       </c>
       <c r="J11">
-        <v>0.3602002891223819</v>
+        <v>0.2993161313816302</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.06676109690194654</v>
+        <v>0.1414249171632225</v>
       </c>
       <c r="M11">
-        <v>1.537288441467609</v>
+        <v>0.1219155029495447</v>
       </c>
       <c r="N11">
-        <v>0.2203684925468252</v>
+        <v>0.06214683604312565</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.577688410373639</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2414260137603321</v>
       </c>
       <c r="Q11">
-        <v>1.578000893872073</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.36896469654404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.799094686826578</v>
+        <v>1.772352006357352</v>
       </c>
       <c r="C12">
-        <v>0.2088158225563888</v>
+        <v>0.2073270101572007</v>
       </c>
       <c r="D12">
-        <v>0.1374542706276998</v>
+        <v>0.1454172239887441</v>
       </c>
       <c r="E12">
-        <v>0.05194390369196356</v>
+        <v>0.04995014850754309</v>
       </c>
       <c r="F12">
-        <v>0.6268148621895335</v>
+        <v>0.554977951825002</v>
       </c>
       <c r="G12">
-        <v>0.3717233429278366</v>
+        <v>0.3690512871531482</v>
       </c>
       <c r="H12">
-        <v>0.06095942290487955</v>
+        <v>0.06026063343601606</v>
       </c>
       <c r="I12">
-        <v>0.006255681639079747</v>
+        <v>0.00514874337351845</v>
       </c>
       <c r="J12">
-        <v>0.3371913787715002</v>
+        <v>0.2757610778399133</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.06209459139758167</v>
+        <v>0.1320607614809806</v>
       </c>
       <c r="M12">
-        <v>1.598528546744404</v>
+        <v>0.111283053126531</v>
       </c>
       <c r="N12">
-        <v>0.173239042950577</v>
+        <v>0.05939897230820979</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.635075826232537</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1907847646050769</v>
       </c>
       <c r="Q12">
-        <v>1.440957501462748</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.246068484053254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.767446452935218</v>
+        <v>1.745296841473959</v>
       </c>
       <c r="C13">
-        <v>0.221448992573869</v>
+        <v>0.2191226609862582</v>
       </c>
       <c r="D13">
-        <v>0.1227407247068157</v>
+        <v>0.1296853989934448</v>
       </c>
       <c r="E13">
-        <v>0.04191212961516566</v>
+        <v>0.04042837613100048</v>
       </c>
       <c r="F13">
-        <v>0.5692116476672666</v>
+        <v>0.5079255858372349</v>
       </c>
       <c r="G13">
-        <v>0.3342200295159827</v>
+        <v>0.3310733470112837</v>
       </c>
       <c r="H13">
-        <v>0.1170745886309845</v>
+        <v>0.116310419751585</v>
       </c>
       <c r="I13">
-        <v>0.006566298893716294</v>
+        <v>0.00535417996324572</v>
       </c>
       <c r="J13">
-        <v>0.3178174356542058</v>
+        <v>0.2686541555928308</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.0639637766704837</v>
+        <v>0.1263979004409048</v>
       </c>
       <c r="M13">
-        <v>1.613069319875507</v>
+        <v>0.1030447362275773</v>
       </c>
       <c r="N13">
-        <v>0.1290063321635202</v>
+        <v>0.06287263975144519</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.645080074908918</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1429029656042005</v>
       </c>
       <c r="Q13">
-        <v>1.3208584003157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.154617507880445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.721134303881428</v>
+        <v>1.702546027373046</v>
       </c>
       <c r="C14">
-        <v>0.2302204642929127</v>
+        <v>0.2266754228966477</v>
       </c>
       <c r="D14">
-        <v>0.1115262130601735</v>
+        <v>0.1172876471140256</v>
       </c>
       <c r="E14">
-        <v>0.03663427593425261</v>
+        <v>0.03545677436509198</v>
       </c>
       <c r="F14">
-        <v>0.5309996823681757</v>
+        <v>0.4789302073918051</v>
       </c>
       <c r="G14">
-        <v>0.310144790870531</v>
+        <v>0.3014064279809432</v>
       </c>
       <c r="H14">
-        <v>0.1667642127633968</v>
+        <v>0.1659238541550963</v>
       </c>
       <c r="I14">
-        <v>0.007086352266510332</v>
+        <v>0.005743750793119062</v>
       </c>
       <c r="J14">
-        <v>0.3059390873837984</v>
+        <v>0.2688801531432361</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.06913617477756162</v>
+        <v>0.1237740449296387</v>
       </c>
       <c r="M14">
-        <v>1.602452876492464</v>
+        <v>0.09843532392758547</v>
       </c>
       <c r="N14">
-        <v>0.1004856523525746</v>
+        <v>0.06888452812356505</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.630956867299517</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1118989489505893</v>
       </c>
       <c r="Q14">
-        <v>1.244887844354736</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.103148546372964</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.698250636746337</v>
+        <v>1.680695201850938</v>
       </c>
       <c r="C15">
-        <v>0.2321713737599111</v>
+        <v>0.2281654038108911</v>
       </c>
       <c r="D15">
-        <v>0.1083133959245259</v>
+        <v>0.113587816701326</v>
       </c>
       <c r="E15">
-        <v>0.03556293680379063</v>
+        <v>0.03445967184699228</v>
       </c>
       <c r="F15">
-        <v>0.521744866740633</v>
+        <v>0.4728082203031292</v>
       </c>
       <c r="G15">
-        <v>0.3045541758989501</v>
+        <v>0.2924967320342517</v>
       </c>
       <c r="H15">
-        <v>0.1794426429562037</v>
+        <v>0.1785638422533822</v>
       </c>
       <c r="I15">
-        <v>0.007451700736807787</v>
+        <v>0.006062797151506594</v>
       </c>
       <c r="J15">
-        <v>0.3034879760569495</v>
+        <v>0.2710511404105844</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.07083475366700398</v>
+        <v>0.1235195260206128</v>
       </c>
       <c r="M15">
-        <v>1.590247242169085</v>
+        <v>0.09762219933927163</v>
       </c>
       <c r="N15">
-        <v>0.09365782584055182</v>
+        <v>0.07072260018946253</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.617762772649911</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1044311764679122</v>
       </c>
       <c r="Q15">
-        <v>1.227869141293567</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.094306356516682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.592726812632833</v>
+        <v>1.5765990772897</v>
       </c>
       <c r="C16">
-        <v>0.2254181989526813</v>
+        <v>0.2198988389852445</v>
       </c>
       <c r="D16">
-        <v>0.1033403797045978</v>
+        <v>0.1069153387334438</v>
       </c>
       <c r="E16">
-        <v>0.03558832335844109</v>
+        <v>0.03452745058267181</v>
       </c>
       <c r="F16">
-        <v>0.5251091132166863</v>
+        <v>0.4839375015505496</v>
       </c>
       <c r="G16">
-        <v>0.3092621714373465</v>
+        <v>0.281188873881085</v>
       </c>
       <c r="H16">
-        <v>0.1676615914687147</v>
+        <v>0.1665740736479222</v>
       </c>
       <c r="I16">
-        <v>0.008754294314313071</v>
+        <v>0.007035192417879088</v>
       </c>
       <c r="J16">
-        <v>0.3090312041946746</v>
+        <v>0.2933328459994975</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.06936192062518387</v>
+        <v>0.1276124840404815</v>
       </c>
       <c r="M16">
-        <v>1.492876407768421</v>
+        <v>0.1008171052084847</v>
       </c>
       <c r="N16">
-        <v>0.09002664584645714</v>
+        <v>0.06894569432436626</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.519207884070283</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.100192073572515</v>
       </c>
       <c r="Q16">
-        <v>1.249268931711413</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.1349753930905</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.536453880402718</v>
+        <v>1.519651084812551</v>
       </c>
       <c r="C17">
-        <v>0.2155186199072006</v>
+        <v>0.2094066768396345</v>
       </c>
       <c r="D17">
-        <v>0.1054040238763605</v>
+        <v>0.1084473624574684</v>
       </c>
       <c r="E17">
-        <v>0.03809146076261172</v>
+        <v>0.03689499054392531</v>
       </c>
       <c r="F17">
-        <v>0.5476703236785809</v>
+        <v>0.5073118115470976</v>
       </c>
       <c r="G17">
-        <v>0.3254456820767473</v>
+        <v>0.2893173943186227</v>
       </c>
       <c r="H17">
-        <v>0.1304536201828626</v>
+        <v>0.1292450434751515</v>
       </c>
       <c r="I17">
-        <v>0.009521918688419007</v>
+        <v>0.007621004941096743</v>
       </c>
       <c r="J17">
-        <v>0.3195345534696727</v>
+        <v>0.3109052970418134</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.06485515165208255</v>
+        <v>0.1325430054795911</v>
       </c>
       <c r="M17">
-        <v>1.42413729280554</v>
+        <v>0.1054165143598151</v>
       </c>
       <c r="N17">
-        <v>0.1017277828681387</v>
+        <v>0.06391855393919954</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.451221247100591</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1126521159648206</v>
       </c>
       <c r="Q17">
-        <v>1.305458491721183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.192547446845538</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.516837607930512</v>
+        <v>1.497351172602549</v>
       </c>
       <c r="C18">
-        <v>0.2020897421293881</v>
+        <v>0.1959145416833508</v>
       </c>
       <c r="D18">
-        <v>0.1138737746452279</v>
+        <v>0.1169907054703856</v>
       </c>
       <c r="E18">
-        <v>0.04459573458832899</v>
+        <v>0.04303066992520144</v>
       </c>
       <c r="F18">
-        <v>0.5920976327337684</v>
+        <v>0.5477965502389921</v>
       </c>
       <c r="G18">
-        <v>0.3555601347169315</v>
+        <v>0.3124839808042381</v>
       </c>
       <c r="H18">
-        <v>0.07776403351915917</v>
+        <v>0.07652281594128141</v>
       </c>
       <c r="I18">
-        <v>0.009506495535024584</v>
+        <v>0.007498397404781976</v>
       </c>
       <c r="J18">
-        <v>0.3365543854647512</v>
+        <v>0.3294139615023468</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.0607646749010069</v>
+        <v>0.139726424706053</v>
       </c>
       <c r="M18">
-        <v>1.371311413964122</v>
+        <v>0.1124810495743596</v>
       </c>
       <c r="N18">
-        <v>0.1304742117837634</v>
+        <v>0.0588932355938141</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.401096058957251</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1435441125332488</v>
       </c>
       <c r="Q18">
-        <v>1.404881483429151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.280951603722443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.525490300977879</v>
+        <v>1.501951056947121</v>
       </c>
       <c r="C19">
-        <v>0.1897851542390754</v>
+        <v>0.1837749073163764</v>
       </c>
       <c r="D19">
-        <v>0.1274603532174154</v>
+        <v>0.1310289244966611</v>
       </c>
       <c r="E19">
-        <v>0.05607446129848803</v>
+        <v>0.05390525903491294</v>
       </c>
       <c r="F19">
-        <v>0.6510998276213726</v>
+        <v>0.599518023038712</v>
       </c>
       <c r="G19">
-        <v>0.394813604498566</v>
+        <v>0.3445563610747868</v>
       </c>
       <c r="H19">
-        <v>0.03210146826435789</v>
+        <v>0.03092340626188417</v>
       </c>
       <c r="I19">
-        <v>0.009425090370347888</v>
+        <v>0.007493847309293145</v>
       </c>
       <c r="J19">
-        <v>0.3574541351170168</v>
+        <v>0.348323270134749</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.06258397776035407</v>
+        <v>0.1483625668782107</v>
       </c>
       <c r="M19">
-        <v>1.338079505063178</v>
+        <v>0.1212158441219238</v>
       </c>
       <c r="N19">
-        <v>0.1761597218518887</v>
+        <v>0.05923822299418724</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.371873627186602</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1926482742642861</v>
       </c>
       <c r="Q19">
-        <v>1.531851622318754</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.388230364129839</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.617737558273063</v>
+        <v>1.586143677097965</v>
       </c>
       <c r="C20">
-        <v>0.1775497727394395</v>
+        <v>0.172076804494715</v>
       </c>
       <c r="D20">
-        <v>0.1547250987702142</v>
+        <v>0.1598591807593266</v>
       </c>
       <c r="E20">
-        <v>0.0809407993764566</v>
+        <v>0.0775265525026434</v>
       </c>
       <c r="F20">
-        <v>0.7532252163580111</v>
+        <v>0.6840887763607881</v>
       </c>
       <c r="G20">
-        <v>0.4616386600773268</v>
+        <v>0.4049012651455328</v>
       </c>
       <c r="H20">
-        <v>0.00412401884670599</v>
+        <v>0.003242114336732271</v>
       </c>
       <c r="I20">
-        <v>0.008129955789747179</v>
+        <v>0.00657047057930793</v>
       </c>
       <c r="J20">
-        <v>0.3902031089425648</v>
+        <v>0.3662679911981996</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.07968794947482749</v>
+        <v>0.1601233705951852</v>
       </c>
       <c r="M20">
-        <v>1.355694872671933</v>
+        <v>0.1358520837778201</v>
       </c>
       <c r="N20">
-        <v>0.2661411737063162</v>
+        <v>0.07316037139804443</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.397252794696357</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2896551314913864</v>
       </c>
       <c r="Q20">
-        <v>1.742216944466648</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.551696250765275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.822171606438758</v>
+        <v>1.785256054245622</v>
       </c>
       <c r="C21">
-        <v>0.182579686764214</v>
+        <v>0.1798326322580692</v>
       </c>
       <c r="D21">
-        <v>0.1730940330331379</v>
+        <v>0.1829396404861399</v>
       </c>
       <c r="E21">
-        <v>0.08889573834349562</v>
+        <v>0.08523474540877274</v>
       </c>
       <c r="F21">
-        <v>0.7836543127063109</v>
+        <v>0.6869409397560275</v>
       </c>
       <c r="G21">
-        <v>0.4769561822533603</v>
+        <v>0.4654797424784647</v>
       </c>
       <c r="H21">
-        <v>0.002307525295235924</v>
+        <v>0.001777807022424471</v>
       </c>
       <c r="I21">
-        <v>0.006024609801627001</v>
+        <v>0.005094099634524341</v>
       </c>
       <c r="J21">
-        <v>0.3923005898784879</v>
+        <v>0.3060567693221472</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.08491675689042211</v>
+        <v>0.1521023355752025</v>
       </c>
       <c r="M21">
-        <v>1.51819446573802</v>
+        <v>0.1358930547485357</v>
       </c>
       <c r="N21">
-        <v>0.3041368035273706</v>
+        <v>0.07678998963600847</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.564286453258887</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3318840254788427</v>
       </c>
       <c r="Q21">
-        <v>1.779416755918618</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.515902941109132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.955761522904538</v>
+        <v>1.915620624861646</v>
       </c>
       <c r="C22">
-        <v>0.1858366226459438</v>
+        <v>0.1847117593933234</v>
       </c>
       <c r="D22">
-        <v>0.1838837528732427</v>
+        <v>0.1971454096587451</v>
       </c>
       <c r="E22">
-        <v>0.09292258622791039</v>
+        <v>0.08920176520585699</v>
       </c>
       <c r="F22">
-        <v>0.8013994188087707</v>
+        <v>0.6856601133014948</v>
       </c>
       <c r="G22">
-        <v>0.4859327807972278</v>
+        <v>0.511799926665077</v>
       </c>
       <c r="H22">
-        <v>0.00150337752735008</v>
+        <v>0.001146395119063559</v>
       </c>
       <c r="I22">
-        <v>0.004601311089094118</v>
+        <v>0.003944688342723879</v>
       </c>
       <c r="J22">
-        <v>0.3931939201656718</v>
+        <v>0.2733576838190928</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.08732838069030535</v>
+        <v>0.146752978638677</v>
       </c>
       <c r="M22">
-        <v>1.624436956624777</v>
+        <v>0.13573385804116</v>
       </c>
       <c r="N22">
-        <v>0.3240070018715926</v>
+        <v>0.07826551754365596</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.673040883903496</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3542796889110633</v>
       </c>
       <c r="Q22">
-        <v>1.800529056637629</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.486744460929259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.885960926082504</v>
+        <v>1.847296666201601</v>
       </c>
       <c r="C23">
-        <v>0.1834898562760259</v>
+        <v>0.1814807416351414</v>
       </c>
       <c r="D23">
-        <v>0.1779857684366277</v>
+        <v>0.1889452737799502</v>
       </c>
       <c r="E23">
-        <v>0.09090355567856179</v>
+        <v>0.08715434420434676</v>
       </c>
       <c r="F23">
-        <v>0.7939188936087618</v>
+        <v>0.6903216487394275</v>
       </c>
       <c r="G23">
-        <v>0.4827794426229417</v>
+        <v>0.4819748071125218</v>
       </c>
       <c r="H23">
-        <v>0.001904722065770748</v>
+        <v>0.001457158198854058</v>
       </c>
       <c r="I23">
-        <v>0.00499760058914589</v>
+        <v>0.004134773204217623</v>
       </c>
       <c r="J23">
-        <v>0.3935593280999115</v>
+        <v>0.2952796821763499</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.08623954033845393</v>
+        <v>0.1503332996904518</v>
       </c>
       <c r="M23">
-        <v>1.566184507889346</v>
+        <v>0.1367864285494917</v>
       </c>
       <c r="N23">
-        <v>0.3126550774778281</v>
+        <v>0.07771199666700213</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.613783840338641</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3414966374900104</v>
       </c>
       <c r="Q23">
-        <v>1.794496607346929</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.512768814384927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.619136656220206</v>
+        <v>1.587069842271688</v>
       </c>
       <c r="C24">
-        <v>0.1756416435638215</v>
+        <v>0.1697048474763037</v>
       </c>
       <c r="D24">
-        <v>0.1559636805679929</v>
+        <v>0.1611291454092907</v>
       </c>
       <c r="E24">
-        <v>0.08304189578911902</v>
+        <v>0.07952785456161848</v>
       </c>
       <c r="F24">
-        <v>0.7635135721200257</v>
+        <v>0.6933089973220063</v>
       </c>
       <c r="G24">
-        <v>0.469137316706572</v>
+        <v>0.4110075196804459</v>
       </c>
       <c r="H24">
-        <v>0.003918063357994495</v>
+        <v>0.003047296579627878</v>
       </c>
       <c r="I24">
-        <v>0.007563971949515746</v>
+        <v>0.005911661626956111</v>
       </c>
       <c r="J24">
-        <v>0.3941532157442467</v>
+        <v>0.3701489520432162</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.08174417987194005</v>
+        <v>0.1620672849031504</v>
       </c>
       <c r="M24">
-        <v>1.348361788262167</v>
+        <v>0.137812164297074</v>
       </c>
       <c r="N24">
-        <v>0.2710543699786996</v>
+        <v>0.07494086626852337</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.390295395802241</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2949973107295136</v>
       </c>
       <c r="Q24">
-        <v>1.766380997614718</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.572778772627998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.331141659022393</v>
+        <v>1.30774797138676</v>
       </c>
       <c r="C25">
-        <v>0.1672284310737666</v>
+        <v>0.1551651507980765</v>
       </c>
       <c r="D25">
-        <v>0.1323828374636804</v>
+        <v>0.1363865765187455</v>
       </c>
       <c r="E25">
-        <v>0.07455010767424852</v>
+        <v>0.07181259348270075</v>
       </c>
       <c r="F25">
-        <v>0.7332752297754794</v>
+        <v>0.6741554318288649</v>
       </c>
       <c r="G25">
-        <v>0.4565259621575493</v>
+        <v>0.4022074785047494</v>
       </c>
       <c r="H25">
-        <v>0.007050458867701559</v>
+        <v>0.005637293115806796</v>
       </c>
       <c r="I25">
-        <v>0.01140885341399667</v>
+        <v>0.008788814496126562</v>
       </c>
       <c r="J25">
-        <v>0.3960803881152586</v>
+        <v>0.3786244075255567</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.0767813621901432</v>
+        <v>0.1713030020411743</v>
       </c>
       <c r="M25">
-        <v>1.113752372776815</v>
+        <v>0.1357903908247078</v>
       </c>
       <c r="N25">
-        <v>0.2264966600750853</v>
+        <v>0.07109374402261892</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.146119444047173</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2460718374231732</v>
       </c>
       <c r="Q25">
-        <v>1.743181256286164</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.576384701299602</v>
       </c>
     </row>
   </sheetData>
